--- a/input/PWR_NCap_adjustor.xlsx
+++ b/input/PWR_NCap_adjustor.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDPTemplateAutomationV2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE176CE-6087-45BD-A946-A56868CFF4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A797B-8EA4-4BCA-8FD6-CBBC2A190EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{A094858F-720F-4B8D-87D5-0BFC488E8504}"/>
+    <workbookView xWindow="1380" yWindow="1575" windowWidth="28800" windowHeight="15480" xr2:uid="{A094858F-720F-4B8D-87D5-0BFC488E8504}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -377,13 +374,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -396,16 +386,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,218 +418,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Excel.Sheet.12">
-    <oleItems>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x14">
-          <x14:oleItem name="!POWER (DB)!R91C4:R106C7" advise="1">
-            <x14:values rows="16" cols="4">
-              <value>
-                <val>36.526038</val>
-              </value>
-              <value>
-                <val>22.030166999999999</val>
-              </value>
-              <value>
-                <val>9.4968330000000005</val>
-              </value>
-              <value>
-                <val>0.67</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value>
-                <val>0.37890000000000001</val>
-              </value>
-              <value>
-                <val>1.2875479999999999</val>
-              </value>
-              <value>
-                <val>9.2111680000000007</val>
-              </value>
-              <value>
-                <val>9.1129350000000002</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value>
-                <val>11.594836000000001</val>
-              </value>
-              <value>
-                <val>3.3045</val>
-              </value>
-              <value>
-                <val>2.6695000000000002</val>
-              </value>
-              <value>
-                <val>0.23449999999999999</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value>
-                <val>1.86</val>
-              </value>
-              <value>
-                <val>1.86</val>
-              </value>
-              <value>
-                <val>1.86</val>
-              </value>
-              <value>
-                <val>15.251125</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value>
-                <val>0.66922999999999999</val>
-              </value>
-              <value>
-                <val>0.67500000000000004</val>
-              </value>
-              <value>
-                <val>0.67500000000000004</val>
-              </value>
-              <value>
-                <val>0.67500000000000004</val>
-              </value>
-              <value>
-                <val>1.9580500000000001</val>
-              </value>
-              <value>
-                <val>12.095198</val>
-              </value>
-              <value>
-                <val>47.305767000000003</val>
-              </value>
-              <value>
-                <val>84.990144000000001</val>
-              </value>
-              <value>
-                <val>1.78064</val>
-              </value>
-              <value>
-                <val>9.5041530000000005</val>
-              </value>
-              <value>
-                <val>30.965987999999999</val>
-              </value>
-              <value>
-                <val>51.072966999999998</val>
-              </value>
-              <value>
-                <val>1.167592</val>
-              </value>
-              <value>
-                <val>10.202121</val>
-              </value>
-              <value>
-                <val>10.057760999999999</val>
-              </value>
-              <value>
-                <val>33.780811999999997</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value>
-                <val>0.8</val>
-              </value>
-              <value>
-                <val>0.8</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value t="nil">
-                <val>1</val>
-              </value>
-              <value>
-                <val>2.8208000000000002</val>
-              </value>
-              <value>
-                <val>3.631265</val>
-              </value>
-              <value>
-                <val>13.665908</val>
-              </value>
-              <value>
-                <val>32.475971999999999</val>
-              </value>
-            </x14:values>
-          </x14:oleItem>
-        </mc:Choice>
-        <mc:Fallback>
-          <oleItem name="!POWER (DB)!R91C4:R106C7" advise="1"/>
-        </mc:Fallback>
-      </mc:AlternateContent>
-    </oleItems>
-  </oleLink>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -934,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13C1FDB-8BEC-49DD-81C8-2160FC9D0F98}">
   <dimension ref="A1:AI97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82:H97"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,39 +733,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
+      <c r="D1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
     </row>
     <row r="2" spans="1:35" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1087,7 +872,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1096,993 +881,1017 @@
       <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11">
-        <v>1.0489816422329279</v>
-      </c>
-      <c r="O3" s="11">
-        <v>2.8281409369229418</v>
-      </c>
-      <c r="P3" s="11">
-        <v>1.2017096397008999</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>2.3059143857706501</v>
-      </c>
-      <c r="R3" s="11">
-        <v>0.86565309778025201</v>
-      </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11">
-        <v>0.86253541955412905</v>
-      </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8">
+        <v>0.31328989699332999</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1.07616301629164</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2.0334687068391046</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0.79241990340697099</v>
+      </c>
+      <c r="S3" s="7">
+        <v>5.1795971453979503E-2</v>
+      </c>
+      <c r="T3" s="8">
+        <v>1.00095267265409</v>
+      </c>
+      <c r="U3" s="7">
+        <v>1.1006851052873899E-2</v>
+      </c>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7">
         <f>SUM(D3:AH3)</f>
-        <v>9.1129351219618009</v>
+        <v>5.2790970186919894</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="11">
-        <v>7.0913099684410993E-2</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>1.43444080012326</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>2.4527565961625402</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>1.84532941662835</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>1.3222655493998099</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>0.87093450105876102</v>
-      </c>
-      <c r="AF4" s="11">
-        <v>8.0337945527645505E-2</v>
-      </c>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="11">
-        <v>3.51785769667377</v>
-      </c>
-      <c r="AI4" s="10">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7">
+        <v>1.17243977502493</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0.73342340299789099</v>
+      </c>
+      <c r="X4" s="7">
+        <v>3.5895637413896297</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>1.2457172505624501</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>1.3709440482128001</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>1.0599564294547199</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1.92705795818724</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>2.7507498467434499</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>2.5052669427361098</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>1.48561047005938</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>0.242579546622335</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>9.1041835469636997E-2</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>2.87213241324769</v>
+      </c>
+      <c r="AI4" s="7">
         <f>SUM(D4:AH4)</f>
-        <v>11.594835605258547</v>
+        <v>21.046483660708262</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11">
-        <v>0.68796992784045596</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>1.7567669206245</v>
-      </c>
-      <c r="AF5" s="11">
-        <v>2.9324436126869502</v>
-      </c>
-      <c r="AG5" s="11">
-        <v>4.2256879739556501</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>5.6482567713512104</v>
-      </c>
-      <c r="AI5" s="10">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8">
+        <v>0.89863994404480496</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>1.98850393844929</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>3.1873543322942099</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>4.5060897655236403</v>
+      </c>
+      <c r="AI5" s="7">
         <f>SUM(D5:AH5)</f>
-        <v>15.251125206458767</v>
+        <v>10.580587980311945</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11">
-        <v>6.6699999999999997E-3</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
+        <v>7.0299999999999998E-3</v>
+      </c>
+      <c r="S6" s="8">
         <v>8.9999999999999816E-5</v>
       </c>
-      <c r="P6" s="11">
+      <c r="T6" s="8">
         <v>8.9999999999999816E-5</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="U6" s="8">
+        <v>9.0000000000000697E-5</v>
+      </c>
+      <c r="V6" s="8">
         <v>8.9999999999999816E-5</v>
       </c>
-      <c r="R6" s="11">
-        <v>9.0000000000000697E-5</v>
-      </c>
-      <c r="S6" s="11">
+      <c r="W6" s="8">
         <v>8.9999999999999816E-5</v>
       </c>
-      <c r="T6" s="11">
+      <c r="X6" s="8">
         <v>8.9999999999999816E-5</v>
       </c>
-      <c r="U6" s="11">
-        <v>9.0000000000000697E-5</v>
-      </c>
-      <c r="V6" s="11">
+      <c r="Y6" s="8">
         <v>8.9999999999999816E-5</v>
       </c>
-      <c r="W6" s="11">
+      <c r="Z6" s="8">
         <v>8.9999999999999816E-5</v>
       </c>
-      <c r="X6" s="11">
+      <c r="AA6" s="8">
         <v>8.9999999999999816E-5</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8">
+        <v>4.5000000000000102E-4</v>
+      </c>
+      <c r="AG6" s="8">
         <v>8.9999999999999816E-5</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="AH6" s="8">
         <v>8.9999999999999816E-5</v>
       </c>
-      <c r="AA6" s="11">
-        <v>8.9999999999999816E-5</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>8.9999999999999816E-5</v>
-      </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="11">
-        <v>3.60000000000001E-4</v>
-      </c>
-      <c r="AG6" s="11">
-        <v>8.9999999999999816E-5</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>8.9999999999999816E-5</v>
-      </c>
-      <c r="AI6" s="10">
+      <c r="AI6" s="7">
         <f>SUM(D6:AH6)</f>
         <v>8.4700000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8">
         <v>0.41599999999999998</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>0.52800000000000002</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <v>1.256</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11">
-        <v>1.4174456911072499</v>
-      </c>
-      <c r="K7" s="11">
-        <v>1.5591902602179801</v>
-      </c>
-      <c r="L7" s="11">
-        <v>1.7151092862397701</v>
-      </c>
-      <c r="M7" s="11">
-        <v>1.8866202148637501</v>
-      </c>
-      <c r="N7" s="11">
-        <v>2.0752822363501302</v>
-      </c>
-      <c r="O7" s="11">
-        <v>2.2828104599851402</v>
-      </c>
-      <c r="P7" s="11">
-        <v>2.5110915059836501</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>2.7622006565820199</v>
-      </c>
-      <c r="R7" s="11">
-        <v>3.03842072224022</v>
-      </c>
-      <c r="S7" s="11">
-        <v>3.34226279446424</v>
-      </c>
-      <c r="T7" s="11">
-        <v>3.6764890739106701</v>
-      </c>
-      <c r="U7" s="11">
-        <v>4.0441379813017297</v>
-      </c>
-      <c r="V7" s="11">
-        <v>4.4485517794319103</v>
-      </c>
-      <c r="W7" s="11">
-        <v>4.8934069573750998</v>
-      </c>
-      <c r="X7" s="11">
-        <v>5.3827476531126104</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>5.0841912864366696</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>3.77428057938448</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>4.1517086373229297</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>4.5668795010552197</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>4.8147693515618499</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>4.5132839757182399</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>4.6763436264636002</v>
-      </c>
-      <c r="AF7" s="11">
-        <v>5.1439779891099597</v>
-      </c>
-      <c r="AG7" s="11">
-        <v>5.65837578802096</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>6.2242133668230597</v>
-      </c>
-      <c r="AI7" s="10">
+      <c r="I7" s="7">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2.75</v>
+      </c>
+      <c r="L7" s="8">
+        <v>3.0249999999999999</v>
+      </c>
+      <c r="M7" s="8">
+        <v>3.3275000000000001</v>
+      </c>
+      <c r="N7" s="8">
+        <v>3.66025</v>
+      </c>
+      <c r="O7" s="8">
+        <v>4.026275</v>
+      </c>
+      <c r="P7" s="8">
+        <v>4.4289025000000004</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>4.87179275</v>
+      </c>
+      <c r="R7" s="8">
+        <v>5.3589720249999999</v>
+      </c>
+      <c r="S7" s="8">
+        <v>5.8948692275000001</v>
+      </c>
+      <c r="T7" s="8">
+        <v>6.48435615025</v>
+      </c>
+      <c r="U7" s="8">
+        <v>2.4504606088687098</v>
+      </c>
+      <c r="V7" s="8">
+        <v>2.6000650127915499</v>
+      </c>
+      <c r="W7" s="8">
+        <v>2.8600715140707003</v>
+      </c>
+      <c r="X7" s="8">
+        <v>3.1460786654777699</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>3.4606865320255498</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>3.8067551852280999</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>4.1874307037509197</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>4.6061737741260096</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>5.0667911515386104</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>5.5734702666924703</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>6.1308172933617202</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>6.7438990226978897</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>6.2920681487949297</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>6.9212749636744197</v>
+      </c>
+      <c r="AI7" s="7">
         <f>SUM(D7:AH7)</f>
-        <v>95.913791375063155</v>
+        <v>112.80596049584933</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8">
         <v>0.1</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8">
         <v>0.68300000000000005</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>5.5E-2</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <v>1.325</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="8">
         <v>1.62</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11">
-        <v>0.73560903249120702</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0.77491797025331</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0.90830224048544805</v>
-      </c>
-      <c r="M9" s="11">
-        <v>1.00975912308121</v>
-      </c>
-      <c r="N9" s="11">
-        <v>1.1697914372728999</v>
-      </c>
-      <c r="O9" s="11">
-        <v>1.3879094105752001</v>
-      </c>
-      <c r="P9" s="11">
-        <v>1.52670035163272</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>1.6793703867960001</v>
-      </c>
-      <c r="R9" s="11">
-        <v>1.8473074254755999</v>
-      </c>
-      <c r="S9" s="11">
-        <v>2.0320381680231598</v>
-      </c>
-      <c r="T9" s="11">
-        <v>2.2352419848254699</v>
-      </c>
-      <c r="U9" s="11">
-        <v>2.4587661833080201</v>
-      </c>
-      <c r="V9" s="11">
-        <v>2.70464280163882</v>
-      </c>
-      <c r="W9" s="11">
-        <v>2.9751070818027001</v>
-      </c>
-      <c r="X9" s="11">
-        <v>3.27261778998297</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>2.7173405139289901</v>
-      </c>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="11">
-        <v>2.1922353483251098</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>2.24148056324759</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>2.8876651972194898</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>3.4616119415178099</v>
-      </c>
-      <c r="AE9" s="11">
-        <v>1.9720946195992699</v>
-      </c>
-      <c r="AF9" s="11">
-        <v>2.7094206637709801</v>
-      </c>
-      <c r="AG9" s="11">
-        <v>3.5847092050028397</v>
-      </c>
-      <c r="AH9" s="11">
-        <v>2.4883277175574801</v>
-      </c>
-      <c r="AI9" s="10">
+      <c r="I9" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3.4777794892855241</v>
+      </c>
+      <c r="K9" s="8">
+        <v>3.82555743821408</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4.2081131820354898</v>
+      </c>
+      <c r="M9" s="8">
+        <v>2.7256824572438498</v>
+      </c>
+      <c r="N9" s="8">
+        <v>2.9982507029682299</v>
+      </c>
+      <c r="O9" s="8">
+        <v>3.0573627379974999</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1.19724370710442</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1.31696807781487</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1.44866488559635</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1.59353137415599</v>
+      </c>
+      <c r="T9" s="8">
+        <v>1.0196669076502101</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0.50115283509833097</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0.63026056024211896</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0.40361311414879097</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1.46672841276199</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>1.88555241486091</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>1.97593229652821</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>1.9692990274106399</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>2.1601536685276201</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>3.9661407214345101</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>2.4160240461922</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>3.1139222803229298</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>1.8821619545933599</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>3.3980042289596599</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>4.4558046516485001</v>
+      </c>
+      <c r="AI9" s="7">
         <f>SUM(D8:AH9)</f>
-        <v>54.755967157814297</v>
+        <v>63.376571172796282</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="8">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="E10" s="8">
         <v>0.39999999999999958</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>0.96599999999999997</v>
       </c>
-      <c r="G10" s="11">
-        <v>3.650000000000003</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1.9999999999999991</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="G10" s="8">
+        <v>1.8250000000000011</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.9999999999999987</v>
+      </c>
+      <c r="I10" s="8">
         <v>1.5</v>
       </c>
-      <c r="J10" s="11">
-        <v>0.12617351500940099</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0.17304283199735801</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0.134454641990288</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0.13727344764209601</v>
-      </c>
-      <c r="N10" s="11">
-        <v>9.1944390522744501E-2</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="11">
-        <v>0.88253905505228114</v>
-      </c>
-      <c r="Z10" s="11">
-        <v>3.9598675258794018</v>
-      </c>
-      <c r="AA10" s="11">
-        <v>2.1636189301422357</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>2.5499591430664825</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>2.382918479725991</v>
-      </c>
-      <c r="AD10" s="11">
-        <v>2.3360301031222241</v>
-      </c>
-      <c r="AE10" s="11">
-        <v>4.4053116295047712</v>
-      </c>
-      <c r="AF10" s="11">
-        <v>4.3057262102434644</v>
-      </c>
-      <c r="AG10" s="11">
-        <v>4.1319523564130396</v>
-      </c>
-      <c r="AH10" s="11">
-        <v>6</v>
-      </c>
-      <c r="AI10" s="10">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7">
+        <v>0.73321760392137159</v>
+      </c>
+      <c r="U10" s="7">
+        <v>1.4270201276304115</v>
+      </c>
+      <c r="V10" s="7">
+        <v>1.4907296987595</v>
+      </c>
+      <c r="W10" s="7">
+        <v>1.9294761707529902</v>
+      </c>
+      <c r="X10" s="7">
+        <v>1.099669800629973</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0.93748561987024304</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>1.1294095416760679</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>1.446576994614065</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>1.5973099556995489</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>0.16706926521538201</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>2.1305069391226801</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>1.8872618035234412</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>3.6191405376376462</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>2.6534285124944401</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>2.2007713639510098</v>
+      </c>
+      <c r="AI10" s="7">
         <f>SUM(D10:AH10)</f>
-        <v>42.646812260311776</v>
+        <v>31.490073935498771</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
         <v>0.8</v>
       </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7">
         <f>SUM(D11:AH11)</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8">
         <v>0.23899999999999999</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>0.184</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="8">
         <v>0.51300000000000001</v>
       </c>
-      <c r="J12" s="11">
-        <v>1.04997380141344E-2</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1.5749607021201598E-2</v>
-      </c>
-      <c r="L12" s="11">
-        <v>2.3624410531802399E-2</v>
-      </c>
-      <c r="M12" s="11">
-        <v>3.5436615797703602E-2</v>
-      </c>
-      <c r="N12" s="11">
-        <v>5.3154923696555403E-2</v>
-      </c>
-      <c r="O12" s="11">
-        <v>7.9732385544833001E-2</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0.11959857831725</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>0.179397867475874</v>
-      </c>
-      <c r="R12" s="11">
-        <v>0.26909680121381202</v>
-      </c>
-      <c r="S12" s="11">
-        <v>0.403645201820717</v>
-      </c>
-      <c r="T12" s="11">
-        <v>0.60546780273107603</v>
-      </c>
-      <c r="U12" s="11">
-        <v>0.90820170409661405</v>
-      </c>
-      <c r="V12" s="11">
-        <v>1.36230255614492</v>
-      </c>
-      <c r="W12" s="11">
+      <c r="J12" s="8">
+        <v>3.1872665977136998E-2</v>
+      </c>
+      <c r="K12" s="8">
+        <v>4.7808998965705403E-2</v>
+      </c>
+      <c r="L12" s="8">
+        <v>7.1713498448558205E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.107570247672837</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.161355371509256</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.24203305726388399</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.36304958589582598</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.54457437884373905</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.81686156826560796</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1.2252923523984101</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1.83793852859762</v>
+      </c>
+      <c r="U12" s="8">
         <v>2</v>
       </c>
-      <c r="X12" s="11">
+      <c r="V12" s="8">
         <v>2</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="W12" s="8">
         <v>2</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="X12" s="8">
         <v>2</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="Y12" s="8">
         <v>2</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="Z12" s="8">
         <v>2</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AA12" s="8">
         <v>2</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AB12" s="8">
         <v>2</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AC12" s="8">
         <v>2</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AD12" s="8">
         <v>2</v>
       </c>
-      <c r="AG12" s="11">
+      <c r="AE12" s="8">
         <v>2</v>
       </c>
-      <c r="AH12" s="11">
+      <c r="AF12" s="8">
         <v>2</v>
       </c>
-      <c r="AI12" s="10"/>
+      <c r="AG12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="11">
-        <v>0.149065086644141</v>
-      </c>
-      <c r="U13" s="11">
-        <v>0.80579018936456304</v>
-      </c>
-      <c r="V13" s="11">
-        <v>0.78486769785914201</v>
-      </c>
-      <c r="W13" s="11">
-        <v>0.77638628573948198</v>
-      </c>
-      <c r="X13" s="11">
-        <v>0.79109074039267102</v>
-      </c>
-      <c r="Y13" s="11">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7">
+        <v>0.80109647705547005</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.77046851037735098</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1.47163501256718</v>
+      </c>
+      <c r="O13" s="7">
+        <v>2.6399999999999799E-2</v>
+      </c>
+      <c r="P13" s="7">
         <v>2.6400000000000201E-2</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Q13" s="7">
+        <v>2.6400000000000201E-2</v>
+      </c>
+      <c r="R13" s="7">
         <v>2.6399999999999799E-2</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="S13" s="7">
         <v>2.6400000000000201E-2</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="T13" s="8">
+        <v>2.6399999999999799E-2</v>
+      </c>
+      <c r="U13" s="8">
         <v>2.6400000000000201E-2</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="V13" s="8">
         <v>2.6399999999999799E-2</v>
       </c>
-      <c r="AD13" s="11">
+      <c r="W13" s="8">
+        <v>2.6400000000000201E-2</v>
+      </c>
+      <c r="X13" s="8">
         <v>2.6399999999999799E-2</v>
       </c>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="11">
-        <v>5.2800000000000499E-2</v>
-      </c>
-      <c r="AG13" s="11">
+      <c r="Y13" s="8">
+        <v>2.6400000000000201E-2</v>
+      </c>
+      <c r="Z13" s="8">
         <v>2.6399999999999799E-2</v>
       </c>
-      <c r="AH13" s="11">
+      <c r="AA13" s="8">
         <v>2.6400000000000201E-2</v>
       </c>
-      <c r="AI13" s="10">
+      <c r="AB13" s="8">
+        <v>2.6400000000000201E-2</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>2.6399999999999799E-2</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>2.6399999999999799E-2</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>2.6400000000000201E-2</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>2.6400000000000201E-2</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>2.6399999999999799E-2</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>2.6400000000000201E-2</v>
+      </c>
+      <c r="AI13" s="7">
         <f>SUM(D12:AH13)</f>
-        <v>32.573108192406508</v>
+        <v>37.957270253838622</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11">
+      <c r="C14" s="21"/>
+      <c r="D14" s="8">
         <v>0.35</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>1.4989999999999997</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>1.5489999999999999</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>5.2840000000000034</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <v>5.1599999999999993</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="8">
         <v>2.0129999999999999</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <v>2.2897279766219922</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="8">
         <v>2.5229006694898497</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="8">
         <v>2.7814905792473086</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="8">
         <v>3.0690894013847596</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="8">
         <v>4.4458246300752586</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="8">
         <v>6.5786831930281151</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="8">
         <v>5.3591900756345199</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="8">
         <v>6.9269732966245439</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="8">
         <v>6.0205680467098848</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="8">
         <v>5.7780361643081175</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="8">
         <v>7.5288893676654851</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="8">
         <v>8.2169860580709262</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="8">
         <v>10.100454835074792</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="8">
         <v>10.644990324917281</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="8">
         <v>11.446546183488252</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="8">
         <v>10.710560855417942</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="8">
         <v>9.8315512049482923</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AA14" s="8">
         <v>11.968493715913535</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AB14" s="8">
         <v>13.837565803531835</v>
       </c>
-      <c r="AC14" s="11">
+      <c r="AC14" s="8">
         <v>13.957082445135683</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AD14" s="8">
         <v>14.347561497598541</v>
       </c>
-      <c r="AE14" s="11">
+      <c r="AE14" s="8">
         <v>15.681451297250902</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AF14" s="8">
         <v>17.225066421339001</v>
       </c>
-      <c r="AG14" s="11">
+      <c r="AG14" s="8">
         <v>19.627215323392491</v>
       </c>
-      <c r="AH14" s="11">
+      <c r="AH14" s="8">
         <v>25.905145552405518</v>
       </c>
-      <c r="AI14" s="10"/>
+      <c r="AI14" s="7"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="11">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="8">
         <v>0.35</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>1.4989999999999997</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>1.5489999999999999</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <v>5.2840000000000034</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="8">
         <v>5.1599999999999993</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="8">
         <v>2.0129999999999999</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <v>2.2897279766219922</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="8">
         <v>2.5229006694898497</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="8">
         <v>2.7814905792473086</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="8">
         <v>3.0690894013847596</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="8">
         <v>4.4458246300752586</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="8">
         <v>6.5786831930281151</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="8">
         <v>5.3591900756345199</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="8">
         <v>6.9269732966245439</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="8">
         <v>6.0205680467098848</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="8">
         <v>5.7780361643081175</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="8">
         <v>7.5288893676654851</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="8">
         <v>8.2169860580709262</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="8">
         <v>10.100454835074792</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="8">
         <v>10.644990324917281</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="8">
         <v>11.446546183488252</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="8">
         <v>10.710560855417942</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15" s="8">
         <v>9.8315512049482923</v>
       </c>
-      <c r="AA15" s="11">
+      <c r="AA15" s="8">
         <v>11.968493715913535</v>
       </c>
-      <c r="AB15" s="11">
+      <c r="AB15" s="8">
         <v>13.837565803531835</v>
       </c>
-      <c r="AC15" s="11">
+      <c r="AC15" s="8">
         <v>13.957082445135683</v>
       </c>
-      <c r="AD15" s="11">
+      <c r="AD15" s="8">
         <v>14.347561497598541</v>
       </c>
-      <c r="AE15" s="11">
+      <c r="AE15" s="8">
         <v>15.681451297250902</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AF15" s="8">
         <v>17.225066421339001</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AG15" s="8">
         <v>19.627215323392491</v>
       </c>
-      <c r="AH15" s="11">
+      <c r="AH15" s="8">
         <v>25.905145552405518</v>
       </c>
-      <c r="AI15" s="10"/>
+      <c r="AI15" s="7"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D20">
@@ -2237,19 +2046,19 @@
       <c r="A23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="D23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2257,170 +2066,170 @@
       <c r="A24" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="L24" s="18"/>
+      <c r="D24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16">
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13">
         <f>SUM(D3:N3)</f>
-        <v>1.0489816422329279</v>
-      </c>
-      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
         <f>SUM(O3:X3)</f>
-        <v>8.0639534797288732</v>
-      </c>
-      <c r="H25" s="16">
+        <v>5.2790970186919894</v>
+      </c>
+      <c r="H25" s="13">
         <f>SUM(Y3:AH3)</f>
         <v>0</v>
       </c>
       <c r="J25" s="1">
         <f>SUM(F25:H25)</f>
-        <v>9.1129351219618009</v>
-      </c>
-      <c r="L25" s="18"/>
+        <v>5.2790970186919894</v>
+      </c>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16">
+      <c r="D26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13">
         <f>SUM(D4:N4)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="13">
         <f>SUM(O4:X4)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
+        <v>5.4954269194124503</v>
+      </c>
+      <c r="H26" s="13">
         <f>SUM(Y4:AH4)</f>
-        <v>11.594835605258547</v>
+        <v>15.55105674129581</v>
       </c>
       <c r="J26" s="1">
         <f>SUM(F26:H26)</f>
-        <v>11.594835605258547</v>
-      </c>
-      <c r="L26" s="18"/>
+        <v>21.046483660708262</v>
+      </c>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="L27" s="18"/>
+      <c r="D27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="L28" s="18"/>
+      <c r="D28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16">
+      <c r="D29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13">
         <f>SUM(D5:N5)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="13">
         <f>SUM(O5:X5)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="13">
         <f>SUM(Y5:AH5)</f>
-        <v>15.251125206458767</v>
+        <v>10.580587980311945</v>
       </c>
       <c r="J29" s="1">
         <f>SUM(F29:H29)</f>
-        <v>15.251125206458767</v>
+        <v>10.580587980311945</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="D30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16">
+      <c r="D31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13">
         <f>SUM(D6:N6)</f>
-        <v>6.6699999999999997E-3</v>
-      </c>
-      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
         <f>SUM(O6:X6)</f>
-        <v>8.9999999999999987E-4</v>
-      </c>
-      <c r="H31" s="16">
+        <v>7.5699999999999995E-3</v>
+      </c>
+      <c r="H31" s="13">
         <f>SUM(Y6:AH6)</f>
-        <v>8.9999999999999987E-4</v>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="J31" s="1">
         <f>SUM(F31:H31)</f>
@@ -2431,28 +2240,28 @@
       <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16">
+      <c r="D32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13">
         <f>SUM(D7:N7)</f>
-        <v>10.92364768877888</v>
-      </c>
-      <c r="G32" s="16">
+        <v>17.894750000000002</v>
+      </c>
+      <c r="G32" s="13">
         <f>SUM(O7:X7)</f>
-        <v>36.38211958438729</v>
-      </c>
-      <c r="H32" s="16">
+        <v>42.121843453958732</v>
+      </c>
+      <c r="H32" s="13">
         <f>SUM(Y7:AH7)</f>
-        <v>48.608024101896966</v>
+        <v>52.789367041890621</v>
       </c>
       <c r="J32" s="1">
         <f>SUM(F32:H32)</f>
-        <v>95.913791375063141</v>
+        <v>112.80596049584935</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2462,78 +2271,78 @@
       <c r="B33" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="17">
+      <c r="D33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="14">
         <f>SUM(D8:N9)</f>
-        <v>8.3813798035840765</v>
-      </c>
-      <c r="G33" s="17">
+        <v>23.518383269747176</v>
+      </c>
+      <c r="G33" s="14">
         <f>SUM(O8:X9)</f>
-        <v>22.11970158406066</v>
-      </c>
-      <c r="H33" s="17">
+        <v>12.635192612570572</v>
+      </c>
+      <c r="H33" s="14">
         <f>SUM(Y8:AH9)</f>
-        <v>24.254885770169558</v>
+        <v>27.22299529047854</v>
       </c>
       <c r="J33" s="1">
         <f>SUM(F33:H33)</f>
-        <v>54.755967157814297</v>
+        <v>63.376571172796289</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16">
+      <c r="D34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13">
         <f>SUM(D10:N10)</f>
-        <v>9.5288888271618895</v>
-      </c>
-      <c r="G34" s="16">
+        <v>7.0409999999999986</v>
+      </c>
+      <c r="G34" s="13">
         <f>SUM(O10:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="16">
+        <v>6.6801134016942463</v>
+      </c>
+      <c r="H34" s="13">
         <f>SUM(Y10:AH10)</f>
-        <v>33.11792343314989</v>
+        <v>17.768960533804524</v>
       </c>
       <c r="J34" s="1">
         <f>SUM(F34:H34)</f>
-        <v>42.646812260311776</v>
+        <v>31.490073935498771</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16">
+      <c r="D35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13">
         <f>SUM(D11:N11)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="G35" s="13">
         <f>SUM(O11:X11)</f>
-        <v>0.8</v>
-      </c>
-      <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
         <f>SUM(Y11:AH11)</f>
         <v>0</v>
       </c>
@@ -2543,28 +2352,28 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
+      <c r="D36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+      <c r="D37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2573,28 +2382,28 @@
       <c r="B38" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="17">
+      <c r="D38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="14">
         <f>SUM(D12:N13)</f>
-        <v>1.0744652950613973</v>
-      </c>
-      <c r="G38" s="17">
+        <v>4.3995207825734948</v>
+      </c>
+      <c r="G38" s="14">
         <f>SUM(O12:X13)</f>
-        <v>11.234642897345095</v>
-      </c>
-      <c r="H38" s="17">
+        <v>13.293749471265095</v>
+      </c>
+      <c r="H38" s="14">
         <f>SUM(Y12:AH13)</f>
-        <v>20.263999999999992</v>
+        <v>20.263999999999989</v>
       </c>
       <c r="J38" s="1">
         <f>SUM(F38:H38)</f>
-        <v>32.573108192406487</v>
+        <v>37.95727025383858</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2618,324 +2427,275 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="12">
-        <f t="array" ref="E43:H58">[1]!'!POWER (DB)!R91C4:R106C7'</f>
+      <c r="D43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="9">
         <v>36.526038</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="10">
         <v>22.030166999999999</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="10">
         <v>9.4968330000000005</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="10">
         <v>0.67</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="12">
-        <v>0</v>
-      </c>
-      <c r="F44" s="12">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-      <c r="H44" s="12">
-        <v>0</v>
-      </c>
+      <c r="D44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="12">
+      <c r="D45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="9">
         <v>0.37890000000000001</v>
       </c>
-      <c r="F45" s="13">
-        <v>1.2875479999999999</v>
-      </c>
-      <c r="G45" s="13">
-        <v>9.2111680000000007</v>
-      </c>
-      <c r="H45" s="13">
-        <v>9.1129350000000002</v>
+      <c r="F45" s="10">
+        <v>0.34646700000000002</v>
+      </c>
+      <c r="G45" s="10">
+        <v>5.5682299999999998</v>
+      </c>
+      <c r="H45" s="10">
+        <v>5.5114970000000003</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="12">
-        <v>0</v>
-      </c>
-      <c r="F46" s="13">
-        <v>0</v>
-      </c>
-      <c r="G46" s="13">
-        <v>0</v>
-      </c>
-      <c r="H46" s="13">
-        <v>11.594836000000001</v>
+      <c r="D46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10">
+        <v>5.4954270000000003</v>
+      </c>
+      <c r="H46" s="10">
+        <v>21.046484</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="12">
+      <c r="D47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="9">
         <v>3.3045</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="9">
         <v>2.6695000000000002</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="9">
         <v>0.23449999999999999</v>
       </c>
-      <c r="H47" s="12">
-        <v>0</v>
-      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="12">
-        <v>0</v>
-      </c>
-      <c r="F48" s="12">
-        <v>0</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0</v>
-      </c>
+      <c r="D48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="12">
+      <c r="D49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="9">
         <v>1.86</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="10">
         <v>1.86</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="10">
         <v>1.86</v>
       </c>
-      <c r="H49" s="13">
-        <v>15.251125</v>
+      <c r="H49" s="10">
+        <v>10.580588000000001</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="12">
-        <v>0</v>
-      </c>
-      <c r="F50" s="12">
-        <v>0</v>
-      </c>
-      <c r="G50" s="12">
-        <v>0</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0</v>
-      </c>
+      <c r="D50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="12">
+      <c r="D51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="9">
         <v>0.66922999999999999</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="10">
+        <v>0.66832999999999998</v>
+      </c>
+      <c r="G51" s="10">
         <v>0.67500000000000004</v>
       </c>
-      <c r="G51" s="13">
+      <c r="H51" s="10">
         <v>0.67500000000000004</v>
       </c>
-      <c r="H51" s="13">
-        <v>0.67500000000000004</v>
-      </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="12">
+      <c r="D52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="9">
         <v>1.9580500000000001</v>
       </c>
-      <c r="F52" s="13">
-        <v>12.095198</v>
-      </c>
-      <c r="G52" s="13">
-        <v>47.305767000000003</v>
-      </c>
-      <c r="H52" s="13">
-        <v>84.990144000000001</v>
+      <c r="F52" s="10">
+        <v>19.066299999999998</v>
+      </c>
+      <c r="G52" s="10">
+        <v>60.016593</v>
+      </c>
+      <c r="H52" s="10">
+        <v>94.911209999999997</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="12">
+      <c r="D53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="9">
         <v>1.78064</v>
       </c>
-      <c r="F53" s="14">
-        <v>9.5041530000000005</v>
-      </c>
-      <c r="G53" s="14">
-        <v>30.965987999999999</v>
-      </c>
-      <c r="H53" s="14">
-        <v>51.072966999999998</v>
+      <c r="F53" s="11">
+        <v>24.641157</v>
+      </c>
+      <c r="G53" s="11">
+        <v>36.618482999999998</v>
+      </c>
+      <c r="H53" s="11">
+        <v>57.193570999999999</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="12">
+      <c r="D54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="9">
         <v>1.167592</v>
       </c>
-      <c r="F54" s="13">
-        <v>10.202121</v>
-      </c>
-      <c r="G54" s="13">
-        <v>10.057760999999999</v>
-      </c>
-      <c r="H54" s="13">
-        <v>33.780811999999997</v>
+      <c r="F54" s="10">
+        <v>7.714232</v>
+      </c>
+      <c r="G54" s="10">
+        <v>14.249985000000001</v>
+      </c>
+      <c r="H54" s="10">
+        <v>24.449074</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="12">
-        <v>0</v>
-      </c>
-      <c r="F55" s="13">
-        <v>0</v>
-      </c>
-      <c r="G55" s="13">
+      <c r="D55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10">
         <v>0.8</v>
       </c>
-      <c r="H55" s="13">
+      <c r="G55" s="10">
         <v>0.8</v>
       </c>
+      <c r="H55" s="10">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="12">
-        <v>0</v>
-      </c>
-      <c r="F56" s="12">
-        <v>0</v>
-      </c>
-      <c r="G56" s="12">
-        <v>0</v>
-      </c>
-      <c r="H56" s="12">
-        <v>0</v>
-      </c>
+      <c r="D56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="12">
-        <v>0</v>
-      </c>
-      <c r="F57" s="12">
-        <v>0</v>
-      </c>
-      <c r="G57" s="12">
-        <v>0</v>
-      </c>
-      <c r="H57" s="12">
-        <v>0</v>
-      </c>
+      <c r="D57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" s="12">
+      <c r="D58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="9">
         <v>2.8208000000000002</v>
       </c>
-      <c r="F58" s="14">
-        <v>3.631265</v>
-      </c>
-      <c r="G58" s="14">
-        <v>13.665908</v>
-      </c>
-      <c r="H58" s="14">
-        <v>32.475971999999999</v>
+      <c r="F58" s="11">
+        <v>6.956321</v>
+      </c>
+      <c r="G58" s="11">
+        <v>19.050070000000002</v>
+      </c>
+      <c r="H58" s="11">
+        <v>35.437939</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
@@ -2944,339 +2704,339 @@
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23">
+      <c r="D63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18">
         <f>F43-E43+F23</f>
         <v>-14.495871000000001</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="18">
         <f t="shared" ref="G63:H63" si="1">G43-F43+G23</f>
         <v>-12.533333999999998</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="18">
         <f t="shared" si="1"/>
         <v>-8.8268330000000006</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23">
+      <c r="D64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18">
         <f t="shared" ref="F64:H64" si="2">F44-E44+F24</f>
         <v>0</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23">
+      <c r="D65" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18">
         <f t="shared" ref="F65:H65" si="3">F45-E45+F25</f>
-        <v>1.9576296422329278</v>
-      </c>
-      <c r="G65" s="23">
+        <v>-3.243299999999999E-2</v>
+      </c>
+      <c r="G65" s="18">
         <f t="shared" si="3"/>
-        <v>15.987573479728873</v>
-      </c>
-      <c r="H65" s="23">
+        <v>10.50086001869199</v>
+      </c>
+      <c r="H65" s="18">
         <f t="shared" si="3"/>
-        <v>-9.8233000000000459E-2</v>
+        <v>-5.6732999999999478E-2</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23">
+      <c r="D66" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18">
         <f t="shared" ref="F66:H66" si="4">F46-E46+F26</f>
         <v>0</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="23">
+        <v>10.990853919412451</v>
+      </c>
+      <c r="H66" s="18">
         <f t="shared" si="4"/>
-        <v>23.189671605258546</v>
+        <v>31.10211374129581</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23">
+      <c r="D67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="18">
         <f t="shared" ref="F67:H67" si="5">F47-E47+F27</f>
         <v>-0.63499999999999979</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="18">
         <f t="shared" si="5"/>
         <v>-2.4350000000000001</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="18">
         <f t="shared" si="5"/>
         <v>-0.23449999999999999</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23">
+      <c r="D68" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="18">
         <f t="shared" ref="F68:H68" si="6">F48-E48+F28</f>
         <v>0</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H68" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23">
+      <c r="D69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="18">
         <f t="shared" ref="F69:H69" si="7">F49-E49+F29</f>
         <v>0</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="18">
         <f t="shared" si="7"/>
-        <v>28.642250206458769</v>
+        <v>19.301175980311946</v>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23">
+      <c r="D70" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="18">
         <f t="shared" ref="F70:H70" si="8">F50-E50+F30</f>
         <v>0</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H70" s="23">
+      <c r="H70" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23">
+      <c r="D71" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="18">
         <f t="shared" ref="F71:H71" si="9">F51-E51+F31</f>
-        <v>1.2440000000000052E-2</v>
-      </c>
-      <c r="G71" s="23">
+        <v>-9.000000000000119E-4</v>
+      </c>
+      <c r="G71" s="18">
         <f t="shared" si="9"/>
-        <v>8.9999999999999987E-4</v>
-      </c>
-      <c r="H71" s="23">
+        <v>1.4240000000000065E-2</v>
+      </c>
+      <c r="H71" s="18">
         <f t="shared" si="9"/>
-        <v>8.9999999999999987E-4</v>
+        <v>9.0000000000000008E-4</v>
       </c>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23">
+      <c r="D72" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="18">
         <f t="shared" ref="F72:H72" si="10">F52-E52+F32</f>
-        <v>21.060795688778882</v>
-      </c>
-      <c r="G72" s="23">
+        <v>35.003</v>
+      </c>
+      <c r="G72" s="18">
         <f t="shared" si="10"/>
-        <v>71.592688584387304</v>
-      </c>
-      <c r="H72" s="23">
+        <v>83.072136453958734</v>
+      </c>
+      <c r="H72" s="18">
         <f t="shared" si="10"/>
-        <v>86.292401101896957</v>
+        <v>87.683984041890625</v>
       </c>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23">
+      <c r="D73" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="17"/>
+      <c r="F73" s="18">
         <f t="shared" ref="F73:H73" si="11">F53-E53+F33</f>
-        <v>16.104892803584079</v>
-      </c>
-      <c r="G73" s="23">
+        <v>46.378900269747177</v>
+      </c>
+      <c r="G73" s="18">
         <f t="shared" si="11"/>
-        <v>43.581536584060657</v>
-      </c>
-      <c r="H73" s="23">
+        <v>24.612518612570568</v>
+      </c>
+      <c r="H73" s="18">
         <f t="shared" si="11"/>
-        <v>44.361864770169561</v>
+        <v>47.798083290478544</v>
       </c>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23">
+      <c r="D74" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" s="17"/>
+      <c r="F74" s="18">
         <f t="shared" ref="F74:H74" si="12">F54-E54+F34</f>
-        <v>18.563417827161889</v>
-      </c>
-      <c r="G74" s="23">
+        <v>13.587639999999999</v>
+      </c>
+      <c r="G74" s="18">
         <f t="shared" si="12"/>
-        <v>-0.14436000000000071</v>
-      </c>
-      <c r="H74" s="23">
+        <v>13.215866401694246</v>
+      </c>
+      <c r="H74" s="18">
         <f t="shared" si="12"/>
-        <v>56.840974433149889</v>
+        <v>27.968049533804525</v>
       </c>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23">
+      <c r="D75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="17"/>
+      <c r="F75" s="18">
         <f t="shared" ref="F75:H75" si="13">F55-E55+F35</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="G75" s="18">
         <f t="shared" si="13"/>
-        <v>1.6</v>
-      </c>
-      <c r="H75" s="23">
+        <v>0</v>
+      </c>
+      <c r="H75" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23">
+      <c r="D76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="18">
         <f t="shared" ref="F76:H76" si="14">F56-E56+F36</f>
         <v>0</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H76" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="23">
+      <c r="D77" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="18">
         <f t="shared" ref="F77:H77" si="15">F57-E57+F37</f>
         <v>0</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G77" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H77" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23">
+      <c r="D78" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="18">
         <f t="shared" ref="F78:H78" si="16">F58-E58+F38</f>
-        <v>1.8849302950613971</v>
-      </c>
-      <c r="G78" s="23">
+        <v>8.5350417825734937</v>
+      </c>
+      <c r="G78" s="18">
         <f t="shared" si="16"/>
-        <v>21.269285897345092</v>
-      </c>
-      <c r="H78" s="23">
+        <v>25.387498471265097</v>
+      </c>
+      <c r="H78" s="18">
         <f t="shared" si="16"/>
-        <v>39.074063999999993</v>
+        <v>36.651868999999991</v>
       </c>
     </row>
     <row r="81" spans="3:12" x14ac:dyDescent="0.25">
@@ -3285,358 +3045,358 @@
       </c>
     </row>
     <row r="82" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E82" s="19"/>
-      <c r="F82" s="20">
+      <c r="D82" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16">
         <f>IF(F63&lt;0,ABS(F63),0)</f>
         <v>14.495871000000001</v>
       </c>
-      <c r="G82" s="20">
+      <c r="G82" s="16">
         <f t="shared" ref="G82:H82" si="17">IF(G63&lt;0,ABS(G63),0)</f>
         <v>12.533333999999998</v>
       </c>
-      <c r="H82" s="20">
+      <c r="H82" s="16">
         <f t="shared" si="17"/>
         <v>8.8268330000000006</v>
       </c>
-      <c r="L82" s="21" t="s">
+      <c r="L82" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="20">
+      <c r="D83" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16">
         <f t="shared" ref="F83:H83" si="18">IF(F64&lt;0,ABS(F64),0)</f>
         <v>0</v>
       </c>
-      <c r="G83" s="20">
+      <c r="G83" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H83" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L83" s="21"/>
+      <c r="L83" s="19"/>
     </row>
     <row r="84" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E84" s="19"/>
-      <c r="F84" s="20">
+      <c r="D84" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="16">
         <f t="shared" ref="F84:H84" si="19">IF(F65&lt;0,ABS(F65),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="20">
+        <v>3.243299999999999E-2</v>
+      </c>
+      <c r="G84" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="16">
         <f t="shared" si="19"/>
-        <v>9.8233000000000459E-2</v>
-      </c>
-      <c r="L84" s="21"/>
+        <v>5.6732999999999478E-2</v>
+      </c>
+      <c r="L84" s="19"/>
     </row>
     <row r="85" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E85" s="19"/>
-      <c r="F85" s="20">
+      <c r="D85" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="16">
         <f t="shared" ref="F85:H85" si="20">IF(F66&lt;0,ABS(F66),0)</f>
         <v>0</v>
       </c>
-      <c r="G85" s="20">
+      <c r="G85" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H85" s="20">
+      <c r="H85" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L85" s="21"/>
+      <c r="L85" s="19"/>
     </row>
     <row r="86" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="20">
+      <c r="D86" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="16">
         <f t="shared" ref="F86:H86" si="21">IF(F67&lt;0,ABS(F67),0)</f>
         <v>0.63499999999999979</v>
       </c>
-      <c r="G86" s="20">
+      <c r="G86" s="16">
         <f t="shared" si="21"/>
         <v>2.4350000000000001</v>
       </c>
-      <c r="H86" s="20">
+      <c r="H86" s="16">
         <f t="shared" si="21"/>
         <v>0.23449999999999999</v>
       </c>
-      <c r="L86" s="21"/>
+      <c r="L86" s="19"/>
     </row>
     <row r="87" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E87" s="19"/>
-      <c r="F87" s="20">
+      <c r="D87" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" s="15"/>
+      <c r="F87" s="16">
         <f t="shared" ref="F87:H87" si="22">IF(F68&lt;0,ABS(F68),0)</f>
         <v>0</v>
       </c>
-      <c r="G87" s="20">
+      <c r="G87" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H87" s="20">
+      <c r="H87" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L87" s="21"/>
+      <c r="L87" s="19"/>
     </row>
     <row r="88" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E88" s="19"/>
-      <c r="F88" s="20">
+      <c r="D88" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="15"/>
+      <c r="F88" s="16">
         <f t="shared" ref="F88:H88" si="23">IF(F69&lt;0,ABS(F69),0)</f>
         <v>0</v>
       </c>
-      <c r="G88" s="20">
+      <c r="G88" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H88" s="20">
+      <c r="H88" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="20">
+      <c r="D89" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="15"/>
+      <c r="F89" s="16">
         <f t="shared" ref="F89:H89" si="24">IF(F70&lt;0,ABS(F70),0)</f>
         <v>0</v>
       </c>
-      <c r="G89" s="20">
+      <c r="G89" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="H89" s="20">
+      <c r="H89" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="20">
+      <c r="D90" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90" s="15"/>
+      <c r="F90" s="16">
         <f t="shared" ref="F90:H90" si="25">IF(F71&lt;0,ABS(F71),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="20">
+        <v>9.000000000000119E-4</v>
+      </c>
+      <c r="G90" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H90" s="20">
+      <c r="H90" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="20">
+      <c r="D91" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91" s="15"/>
+      <c r="F91" s="16">
         <f t="shared" ref="F91:H91" si="26">IF(F72&lt;0,ABS(F72),0)</f>
         <v>0</v>
       </c>
-      <c r="G91" s="20">
+      <c r="G91" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="H91" s="20">
+      <c r="H91" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="20">
+      <c r="D92" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" s="15"/>
+      <c r="F92" s="16">
         <f t="shared" ref="F92:H92" si="27">IF(F73&lt;0,ABS(F73),0)</f>
         <v>0</v>
       </c>
-      <c r="G92" s="20">
+      <c r="G92" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H92" s="20">
+      <c r="H92" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="20">
+      <c r="D93" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="15"/>
+      <c r="F93" s="16">
         <f t="shared" ref="F93:H93" si="28">IF(F74&lt;0,ABS(F74),0)</f>
         <v>0</v>
       </c>
-      <c r="G93" s="20">
+      <c r="G93" s="16">
         <f t="shared" si="28"/>
-        <v>0.14436000000000071</v>
-      </c>
-      <c r="H93" s="20">
+        <v>0</v>
+      </c>
+      <c r="H93" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="20">
+      <c r="D94" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E94" s="15"/>
+      <c r="F94" s="16">
         <f t="shared" ref="F94:H94" si="29">IF(F75&lt;0,ABS(F75),0)</f>
         <v>0</v>
       </c>
-      <c r="G94" s="20">
+      <c r="G94" s="16">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="H94" s="20">
+      <c r="H94" s="16">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="20">
+      <c r="D95" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" s="15"/>
+      <c r="F95" s="16">
         <f t="shared" ref="F95:H95" si="30">IF(F76&lt;0,ABS(F76),0)</f>
         <v>0</v>
       </c>
-      <c r="G95" s="20">
+      <c r="G95" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="H95" s="20">
+      <c r="H95" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="20">
+      <c r="D96" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="15"/>
+      <c r="F96" s="16">
         <f t="shared" ref="F96:H96" si="31">IF(F77&lt;0,ABS(F77),0)</f>
         <v>0</v>
       </c>
-      <c r="G96" s="20">
+      <c r="G96" s="16">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H96" s="20">
+      <c r="H96" s="16">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="20">
+      <c r="D97" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E97" s="15"/>
+      <c r="F97" s="16">
         <f t="shared" ref="F97:H97" si="32">IF(F78&lt;0,ABS(F78),0)</f>
         <v>0</v>
       </c>
-      <c r="G97" s="20">
+      <c r="G97" s="16">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="H97" s="20">
+      <c r="H97" s="16">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D1:AH1"/>
+    <mergeCell ref="L23:L28"/>
     <mergeCell ref="L82:L87"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D1:AH1"/>
-    <mergeCell ref="L23:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
